--- a/data/locations_traduzidas.xlsx
+++ b/data/locations_traduzidas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghnaves/Library/Mobile Documents/com~apple~CloudDocs/GDrive/Elzira e Gustavo/Projetos-R/atlas_amaior/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghnaves/Library/Mobile Documents/com~apple~CloudDocs/projects/atlas_amaior/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7747524C-C059-8D42-8593-CA944E457740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E20917-A115-CA41-9E8B-79735EB57200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="29420" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,9 +380,6 @@
     <t>Regiões menos desenvolvidas</t>
   </si>
   <si>
-    <t>Países menos desenvolvidos</t>
-  </si>
-  <si>
     <t>Regiões menos desenvolvidas, excluindo os países menos desenvolvidos</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>OCEÂNIA</t>
+  </si>
+  <si>
+    <t>Regiões menos desenvolvidos</t>
   </si>
 </sst>
 </file>
@@ -928,7 +928,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1174,7 +1174,7 @@
         <v>Países menos desenvolvidos</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
         <v>Regiões menos desenvolvidas, excluindo os países menos desenvolvidos</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>Regiões menos desenvolvidas, excluindo a China</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>Países em Desenvolvimento Sem Litoral (LLDC)</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>LLDC: África</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
         <v>LLDC: Ásia</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1264,7 +1264,7 @@
         <v>LLDC: Europa</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1279,7 +1279,7 @@
         <v>LLDC: América Latina</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1294,7 +1294,7 @@
         <v>Pequenos Estados insulares em desenvolvimento (SIDS)</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>SIDS Caribe</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1324,7 +1324,7 @@
         <v>SIDS Pacífico</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,7 +1339,7 @@
         <v>SIDS Atlântico, Oceano Índico e Mar da China Meridional (AIS)</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>Grupos de renda do Banco Mundial</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>Países de renda alta e média-alta</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1384,7 +1384,7 @@
         <v>Países de renda baixa e média-baixa</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1399,7 +1399,7 @@
         <v>Países de alta renda</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
         <v>Países de baixa e média renda</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1429,7 +1429,7 @@
         <v>Países de renda média</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>Países de renda média-alta</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
         <v>Países de renda média-baixa</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
         <v>Países de baixa renda</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1489,7 +1489,7 @@
         <v>Nenhum grupo de renda disponível</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1504,7 +1504,7 @@
         <v>Grupos de países por momento de pico populacional</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1519,7 +1519,7 @@
         <v>Grupo A – Pico em 2024</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>Grupo A: África Subsaariana</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1549,7 +1549,7 @@
         <v>Grupo A: Norte da África e Ásia Ocidental</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1564,7 +1564,7 @@
         <v>Grupo A: Ásia Oriental e Sudeste Asiático</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>Grupo A: América Latina e Caribe</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1594,7 +1594,7 @@
         <v>Grupo A: Oceania (excluindo Austrália e Nova Zelândia)</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1609,7 +1609,7 @@
         <v>Grupo A: Europa, América do Norte, Austrália e Nova Zelândia</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
         <v>Grupo B – Pico entre 2025 e 2054</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>Grupo B: África Subsaariana</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,7 +1654,7 @@
         <v>Grupo B: Norte da África e Ásia Ocidental</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1669,7 +1669,7 @@
         <v>Grupo B: Ásia Central e Meridional</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>Grupo B: Ásia Oriental e Sudeste Asiático</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>Grupo B: América Latina e Caribe</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
         <v>Grupo B: Oceania (excluindo Austrália e Nova Zelândia)</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1729,7 +1729,7 @@
         <v>Grupo B: Europa, América do Norte, Austrália e Nova Zelândia</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,7 +1744,7 @@
         <v>Grupo C – Crescendo até 2054</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1759,7 +1759,7 @@
         <v>Grupo C: África Subsaariana</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1774,7 +1774,7 @@
         <v>Grupo C: Norte da África e Ásia Ocidental</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,7 @@
         <v>Grupo C: Ásia Central e Meridional</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1804,7 +1804,7 @@
         <v>Grupo C: Ásia Oriental e Sudeste</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1819,7 +1819,7 @@
         <v>Grupo C: América Latina e Caribe</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>Grupo C: Oceânia (excluindo Austrália e Nova Zelândia)</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1849,7 +1849,7 @@
         <v>Grupo C: Europa, América do Norte, Austrália e Nova Zelândia</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,7 +1864,7 @@
         <v>Regiões geográficas</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1879,7 +1879,7 @@
         <v>ÁFRICA</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1894,7 +1894,7 @@
         <v>África Oriental</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1909,7 +1909,7 @@
         <v>África Central</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,7 +1939,7 @@
         <v>África Austral</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,7 +1954,7 @@
         <v>África Ocidental</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1969,7 +1969,7 @@
         <v>ÁSIA</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2014,7 +2014,7 @@
         <v>Ásia do Sul</v>
       </c>
       <c r="D72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2059,7 +2059,7 @@
         <v>EUROPA</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,7 +2074,7 @@
         <v>Europa Oriental</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2089,7 +2089,7 @@
         <v>Europa do Norte</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2104,7 +2104,7 @@
         <v>Europa Meridional</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2119,7 +2119,7 @@
         <v>Europa Ocidental</v>
       </c>
       <c r="D79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2134,7 +2134,7 @@
         <v>AMÉRICAS</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>AMÉRICA LATINA E CARIBE</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2179,7 +2179,7 @@
         <v>América Central</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>América do Sul</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
         <v>AMÉRICA SETENTRIONAL</v>
       </c>
       <c r="D85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2224,7 +2224,7 @@
         <v>OCEÂNIA</v>
       </c>
       <c r="D86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/locations_traduzidas.xlsx
+++ b/data/locations_traduzidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghnaves/Library/Mobile Documents/com~apple~CloudDocs/projects/atlas_amaior/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E20917-A115-CA41-9E8B-79735EB57200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC9E551-9631-9F44-87B0-4783149DE3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="29420" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,6 +380,9 @@
     <t>Regiões menos desenvolvidas</t>
   </si>
   <si>
+    <t>Países menos desenvolvidos</t>
+  </si>
+  <si>
     <t>Regiões menos desenvolvidas, excluindo os países menos desenvolvidos</t>
   </si>
   <si>
@@ -570,9 +573,6 @@
   </si>
   <si>
     <t>OCEÂNIA</t>
-  </si>
-  <si>
-    <t>Regiões menos desenvolvidos</t>
   </si>
 </sst>
 </file>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1174,7 +1174,7 @@
         <v>Países menos desenvolvidos</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
         <v>Regiões menos desenvolvidas, excluindo os países menos desenvolvidos</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>Regiões menos desenvolvidas, excluindo a China</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>Países em Desenvolvimento Sem Litoral (LLDC)</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>LLDC: África</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
         <v>LLDC: Ásia</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1264,7 +1264,7 @@
         <v>LLDC: Europa</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1279,7 +1279,7 @@
         <v>LLDC: América Latina</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1294,7 +1294,7 @@
         <v>Pequenos Estados insulares em desenvolvimento (SIDS)</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>SIDS Caribe</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1324,7 +1324,7 @@
         <v>SIDS Pacífico</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,7 +1339,7 @@
         <v>SIDS Atlântico, Oceano Índico e Mar da China Meridional (AIS)</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>Grupos de renda do Banco Mundial</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>Países de renda alta e média-alta</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1384,7 +1384,7 @@
         <v>Países de renda baixa e média-baixa</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1399,7 +1399,7 @@
         <v>Países de alta renda</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
         <v>Países de baixa e média renda</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1429,7 +1429,7 @@
         <v>Países de renda média</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>Países de renda média-alta</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
         <v>Países de renda média-baixa</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
         <v>Países de baixa renda</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1489,7 +1489,7 @@
         <v>Nenhum grupo de renda disponível</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1504,7 +1504,7 @@
         <v>Grupos de países por momento de pico populacional</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1519,7 +1519,7 @@
         <v>Grupo A – Pico em 2024</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>Grupo A: África Subsaariana</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1549,7 +1549,7 @@
         <v>Grupo A: Norte da África e Ásia Ocidental</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1564,7 +1564,7 @@
         <v>Grupo A: Ásia Oriental e Sudeste Asiático</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>Grupo A: América Latina e Caribe</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1594,7 +1594,7 @@
         <v>Grupo A: Oceania (excluindo Austrália e Nova Zelândia)</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1609,7 +1609,7 @@
         <v>Grupo A: Europa, América do Norte, Austrália e Nova Zelândia</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
         <v>Grupo B – Pico entre 2025 e 2054</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>Grupo B: África Subsaariana</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,7 +1654,7 @@
         <v>Grupo B: Norte da África e Ásia Ocidental</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1669,7 +1669,7 @@
         <v>Grupo B: Ásia Central e Meridional</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>Grupo B: Ásia Oriental e Sudeste Asiático</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>Grupo B: América Latina e Caribe</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
         <v>Grupo B: Oceania (excluindo Austrália e Nova Zelândia)</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1729,7 +1729,7 @@
         <v>Grupo B: Europa, América do Norte, Austrália e Nova Zelândia</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,7 +1744,7 @@
         <v>Grupo C – Crescendo até 2054</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1759,7 +1759,7 @@
         <v>Grupo C: África Subsaariana</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1774,7 +1774,7 @@
         <v>Grupo C: Norte da África e Ásia Ocidental</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,7 @@
         <v>Grupo C: Ásia Central e Meridional</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1804,7 +1804,7 @@
         <v>Grupo C: Ásia Oriental e Sudeste</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1819,7 +1819,7 @@
         <v>Grupo C: América Latina e Caribe</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>Grupo C: Oceânia (excluindo Austrália e Nova Zelândia)</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1849,7 +1849,7 @@
         <v>Grupo C: Europa, América do Norte, Austrália e Nova Zelândia</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,7 +1864,7 @@
         <v>Regiões geográficas</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1879,7 +1879,7 @@
         <v>ÁFRICA</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1894,7 +1894,7 @@
         <v>África Oriental</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1909,7 +1909,7 @@
         <v>África Central</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,7 +1939,7 @@
         <v>África Austral</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,7 +1954,7 @@
         <v>África Ocidental</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1969,7 +1969,7 @@
         <v>ÁSIA</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2014,7 +2014,7 @@
         <v>Ásia do Sul</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2059,7 +2059,7 @@
         <v>EUROPA</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,7 +2074,7 @@
         <v>Europa Oriental</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2089,7 +2089,7 @@
         <v>Europa do Norte</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2104,7 +2104,7 @@
         <v>Europa Meridional</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2119,7 +2119,7 @@
         <v>Europa Ocidental</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2134,7 +2134,7 @@
         <v>AMÉRICAS</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>AMÉRICA LATINA E CARIBE</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2179,7 +2179,7 @@
         <v>América Central</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>América do Sul</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
         <v>AMÉRICA SETENTRIONAL</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2224,7 +2224,7 @@
         <v>OCEÂNIA</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
